--- a/document/数据库/数据/t_teaching_information.xlsx
+++ b/document/数据库/数据/t_teaching_information.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="57">
   <si>
     <t>numbering</t>
   </si>
@@ -40,211 +40,215 @@
   </si>
   <si>
     <t>COM08025</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>COM08040</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>COM08011</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>COM08024</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>COM08051</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>COM08035</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>COM08036</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>COM08042</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>COM08047</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>COM08072</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>COM08034</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>COM08065</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>COM08019</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>080007</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>080008</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>0800010</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>MTH08029</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>离散数学</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>计算机组成原理</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>软件工程实践</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>操作系统</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>计算机网络</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>数据库原理与设计</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>软件安全基础</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>软件测试技术</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>商务智能</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>J2EE架构与开发</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>人工智能基础</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>应用系统开发实践</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>分布式系统开发实践</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>软件体系结构原理与方法</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>软件质量保障</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>智能科学技术</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>软件体系结构与设计模式</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>必修</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>本科</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>第二学期</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>第四学期</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>第五学期</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>第五学期</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>选修</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>第六学期</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>本科</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>第七学期</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>第七学期实践周</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>必修</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>学术硕士
 专业硕士</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>第一学期</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>第二学期</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>第五学期实践周</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>id</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -258,13 +262,6 @@
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="等线"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
@@ -610,377 +607,431 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F18"/>
+  <dimension ref="A1:G18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="A18" sqref="A1:A18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13" customWidth="1"/>
-    <col min="2" max="2" width="22.5546875" customWidth="1"/>
-    <col min="4" max="4" width="17.33203125" customWidth="1"/>
-    <col min="5" max="5" width="14.5546875" customWidth="1"/>
+    <col min="2" max="2" width="13" customWidth="1"/>
+    <col min="3" max="3" width="22.5546875" customWidth="1"/>
+    <col min="5" max="5" width="17.33203125" customWidth="1"/>
+    <col min="6" max="6" width="14.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="31.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" ht="31.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="C1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
+    <row r="2" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="C2" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="D2" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="D2" s="1">
+      <c r="E2" s="1">
         <v>6120103589</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="F2" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="F2" s="1" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="1" t="s">
+      <c r="G2" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="C3" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="D3" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="D3" s="1">
+      <c r="E3" s="1">
         <v>6120103557</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="F3" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="F3" s="1" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="31.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="1" t="s">
+      <c r="G3" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="31.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="C4" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="D4" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="D4" s="1">
+      <c r="E4" s="1">
         <v>6120100987</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="F4" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="F4" s="1" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="1" t="s">
+      <c r="G4" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="1">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="C5" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="D5" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="D5" s="1">
+      <c r="E5" s="1">
         <v>6120101029</v>
       </c>
-      <c r="E5" s="1" t="s">
+      <c r="F5" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="F5" s="1" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="1" t="s">
+      <c r="G5" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="1">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="C6" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="D6" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="D6" s="1">
+      <c r="E6" s="1">
         <v>6120103556</v>
       </c>
-      <c r="E6" s="1" t="s">
+      <c r="F6" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="F6" s="1" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="1" t="s">
+      <c r="G6" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="1">
+        <v>6</v>
+      </c>
+      <c r="B7" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="C7" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="D7" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="D7" s="1">
+      <c r="E7" s="1">
         <v>6120100987</v>
       </c>
-      <c r="E7" s="1" t="s">
+      <c r="F7" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="F7" s="1" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="1" t="s">
+      <c r="G7" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="1">
+        <v>7</v>
+      </c>
+      <c r="B8" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="C8" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="D8" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="D8" s="1">
+      <c r="E8" s="1">
         <v>6120103556</v>
       </c>
-      <c r="E8" s="1" t="s">
+      <c r="F8" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="F8" s="1" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="1" t="s">
+      <c r="G8" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="1">
+        <v>8</v>
+      </c>
+      <c r="B9" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="C9" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="D9" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="D9" s="1">
+      <c r="E9" s="1">
         <v>6120101809</v>
       </c>
-      <c r="E9" s="1" t="s">
+      <c r="F9" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="F9" s="1" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" ht="31.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="1" t="s">
+      <c r="G9" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="31.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="1">
+        <v>9</v>
+      </c>
+      <c r="B10" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="C10" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="C10" s="1" t="s">
+      <c r="D10" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="D10" s="1">
+      <c r="E10" s="1">
         <v>6120110083</v>
       </c>
-      <c r="E10" s="1" t="s">
+      <c r="F10" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="F10" s="1" t="s">
+      <c r="G10" s="1" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="1" t="s">
+    <row r="11" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="1">
+        <v>10</v>
+      </c>
+      <c r="B11" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="C11" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="C11" s="1" t="s">
+      <c r="D11" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="D11" s="1">
+      <c r="E11" s="1">
         <v>6120103589</v>
       </c>
-      <c r="E11" s="1" t="s">
+      <c r="F11" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="F11" s="1" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="1" t="s">
+      <c r="G11" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="1">
+        <v>11</v>
+      </c>
+      <c r="B12" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="C12" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="C12" s="1" t="s">
+      <c r="D12" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="D12" s="1">
+      <c r="E12" s="1">
         <v>6120103557</v>
       </c>
-      <c r="E12" s="1" t="s">
+      <c r="F12" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="F12" s="1" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="1" t="s">
+      <c r="G12" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="1">
+        <v>12</v>
+      </c>
+      <c r="B13" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B13" s="1" t="s">
+      <c r="C13" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="C13" s="1" t="s">
+      <c r="D13" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="D13" s="1">
+      <c r="E13" s="1">
         <v>6120104144</v>
       </c>
-      <c r="E13" s="1" t="s">
+      <c r="F13" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="F13" s="1" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" ht="31.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="1" t="s">
+      <c r="G13" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="31.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="1">
+        <v>13</v>
+      </c>
+      <c r="B14" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B14" s="1" t="s">
+      <c r="C14" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="C14" s="1" t="s">
+      <c r="D14" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="D14" s="1">
+      <c r="E14" s="1">
         <v>6120101809</v>
       </c>
-      <c r="E14" s="1" t="s">
+      <c r="F14" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="F14" s="1" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" ht="31.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="1" t="s">
+      <c r="G14" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="31.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="1">
+        <v>14</v>
+      </c>
+      <c r="B15" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B15" s="1" t="s">
+      <c r="C15" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="C15" s="1" t="s">
+      <c r="D15" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="D15" s="1">
+      <c r="E15" s="1">
         <v>6120103571</v>
       </c>
-      <c r="E15" s="1" t="s">
+      <c r="F15" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="F15" s="1" t="s">
+      <c r="G15" s="1" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="63" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="1" t="s">
+    <row r="16" spans="1:7" ht="63" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="1">
+        <v>15</v>
+      </c>
+      <c r="B16" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B16" s="1" t="s">
+      <c r="C16" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="C16" s="1" t="s">
+      <c r="D16" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="D16" s="1">
+      <c r="E16" s="1">
         <v>6120103557</v>
       </c>
-      <c r="E16" s="1" t="s">
+      <c r="F16" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="F16" s="1" t="s">
+      <c r="G16" s="1" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="63" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="1" t="s">
+    <row r="17" spans="1:7" ht="63" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="1">
+        <v>16</v>
+      </c>
+      <c r="B17" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B17" s="1" t="s">
+      <c r="C17" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="C17" s="1" t="s">
+      <c r="D17" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="D17" s="1">
+      <c r="E17" s="1">
         <v>6120101809</v>
       </c>
-      <c r="E17" s="1" t="s">
+      <c r="F17" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="F17" s="1" t="s">
+      <c r="G17" s="1" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="63" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="1" t="s">
+    <row r="18" spans="1:7" ht="63" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="1">
+        <v>17</v>
+      </c>
+      <c r="B18" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B18" s="1" t="s">
+      <c r="C18" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="C18" s="1" t="s">
+      <c r="D18" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="D18" s="1">
+      <c r="E18" s="1">
         <v>6120104144</v>
       </c>
-      <c r="E18" s="1" t="s">
+      <c r="F18" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="F18" s="1" t="s">
+      <c r="G18" s="1" t="s">
         <v>52</v>
       </c>
     </row>
